--- a/Solution/3. Sleepy Nights.xlsx
+++ b/Solution/3. Sleepy Nights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internshala course\Projects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\Documents\GitHub\Fitness-Data-Analysis-Using-Excel\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E699AC-FCD1-4B74-BB8D-13375E6E20DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08962039-7E86-48BE-A840-1A90F8B65589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="3675" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -115,35 +115,6 @@
     <t>HEALTHY SLEEP</t>
   </si>
   <si>
-    <t>How I solved the Task</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">First, I imported the Sleep day data using Power Query and cleaned it by removing some columns and used Group By function to get average of sleep data. Next, I utilized the formula </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=[@[Average_TotalMinutesAsleep]]/60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to get average of total sleep hours, did the same for totaltimeinbed to find totalhoursinbed. After this i set the criteria give in case study using formula =IF(AND([@[Average_TotalHoursAsleep]]&gt;=7,[@[Average_TotalHoursAsleep]]&lt;=9),"YES","NO"), I got the healthy customer list and for the sleep quality of the customer i used the formula =IF([@[Average_TotalHoursAsleep]]/[@[Average_TotalTimeInBed2]]&gt;0.9,"Good","BAD"), after this i coppied the useful data to main worksheet and used the formula =OR(C47="NO",D47="BAD") to get the list of potential customers and also create the chart for visualisation of how many customer can buy subscription or not.</t>
-    </r>
-  </si>
-  <si>
     <t>POTENTIAL CUSTOMERS IDs WHO CAN BUY SUBSCRIPTION</t>
   </si>
 </sst>
@@ -166,28 +137,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,14 +183,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,128 +244,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,68 +260,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,28 +294,18 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -512,7 +315,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -531,7 +349,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -563,7 +381,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -592,7 +410,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -613,33 +431,28 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1662,16 +1475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>565933</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3958</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35255</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1253218</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1716,14 +1529,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38FF7A20-D2D5-4635-A8E5-E96190E68FAF}" name="Table2" displayName="Table2" ref="D19:G43" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="D19:G43" xr:uid="{38FF7A20-D2D5-4635-A8E5-E96190E68FAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38FF7A20-D2D5-4635-A8E5-E96190E68FAF}" name="Table2" displayName="Table2" ref="D9:G33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="D9:G33" xr:uid="{38FF7A20-D2D5-4635-A8E5-E96190E68FAF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A27806A1-EA0D-4901-91C8-C5186126B860}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8BF7653F-63CA-495E-A67D-A4C052CD749F}" name="HEALTHY SLEEP" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{57DD7C64-EBA0-430F-8D54-345D2C5588D9}" name="SLEEP QUALITY" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4D83F044-F7B5-48AA-93BF-7F3FD95FA600}" name="POTENTIAL CUSTOMER" dataDxfId="8">
-      <calculatedColumnFormula>OR(E20="NO",F20="BAD")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{A27806A1-EA0D-4901-91C8-C5186126B860}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8BF7653F-63CA-495E-A67D-A4C052CD749F}" name="HEALTHY SLEEP" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{57DD7C64-EBA0-430F-8D54-345D2C5588D9}" name="SLEEP QUALITY" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4D83F044-F7B5-48AA-93BF-7F3FD95FA600}" name="POTENTIAL CUSTOMER" dataDxfId="2">
+      <calculatedColumnFormula>OR(E10="NO",F10="BAD")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1731,22 +1544,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F20206B-2CAD-486C-B268-D728710BD0E4}" name="sleepDay_merged" displayName="sleepDay_merged" ref="A1:G25" tableType="queryTable" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F20206B-2CAD-486C-B268-D728710BD0E4}" name="sleepDay_merged" displayName="sleepDay_merged" ref="A1:G25" tableType="queryTable" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:G25" xr:uid="{8F20206B-2CAD-486C-B268-D728710BD0E4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{717BD509-781F-4DE8-A95E-2D90D320B36E}" uniqueName="1" name="Id" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2214DD29-35A0-4E26-AFD8-4A3E130A74E0}" uniqueName="6" name="Average_TotalMinutesAsleep" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{9A72C25F-EA50-4058-8420-B541F102A89D}" uniqueName="7" name="Average_TotalTimeInBed" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{ED4C1F89-1C53-4239-97C2-DCF22F81E141}" uniqueName="8" name="Average_TotalHoursAsleep" queryTableFieldId="8" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{717BD509-781F-4DE8-A95E-2D90D320B36E}" uniqueName="1" name="Id" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2214DD29-35A0-4E26-AFD8-4A3E130A74E0}" uniqueName="6" name="Average_TotalMinutesAsleep" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{9A72C25F-EA50-4058-8420-B541F102A89D}" uniqueName="7" name="Average_TotalTimeInBed" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{ED4C1F89-1C53-4239-97C2-DCF22F81E141}" uniqueName="8" name="Average_TotalHoursAsleep" queryTableFieldId="8" dataDxfId="9">
       <calculatedColumnFormula>sleepDay_merged[[#This Row],[Average_TotalMinutesAsleep]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9244BF74-ECA7-43F9-8C61-BE40BBF7275A}" uniqueName="9" name="Average_TotalTimeInBed2" queryTableFieldId="9" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{9244BF74-ECA7-43F9-8C61-BE40BBF7275A}" uniqueName="9" name="Average_TotalTimeInBed2" queryTableFieldId="9" dataDxfId="8">
       <calculatedColumnFormula>sleepDay_merged[[#This Row],[Average_TotalTimeInBed]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{94416D6F-C029-4D59-8856-68AA74C892D7}" uniqueName="10" name="Healthy Customers" queryTableFieldId="10" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{94416D6F-C029-4D59-8856-68AA74C892D7}" uniqueName="10" name="Healthy Customers" queryTableFieldId="10" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(sleepDay_merged[[#This Row],[Average_TotalHoursAsleep]]&gt;=7,sleepDay_merged[[#This Row],[Average_TotalHoursAsleep]]&lt;=9),"YES","NO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EF69167E-22DA-4E70-A04D-06FE26415C7C}" uniqueName="11" name="Sleepquality" queryTableFieldId="11" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{EF69167E-22DA-4E70-A04D-06FE26415C7C}" uniqueName="11" name="Sleepquality" queryTableFieldId="11" dataDxfId="6">
       <calculatedColumnFormula>IF(sleepDay_merged[[#This Row],[Average_TotalHoursAsleep]]/sleepDay_merged[[#This Row],[Average_TotalTimeInBed2]]&gt;0.9,"Good","BAD")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2017,15 +1830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G43"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
@@ -2036,500 +1849,516 @@
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="24.75" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" cm="1">
-        <f t="array" ref="B3:B15">_xlfn._xlws.FILTER(D20:D43,G20:G43)</f>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" cm="1">
+        <f t="array" ref="B3:B15">_xlfn._xlws.FILTER(D10:D33,G10:G33)</f>
         <v>1503960366</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="7">
         <v>1644430081</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
         <v>1844505072</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="7">
         <v>1927972279</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="6">
         <v>2320127002</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="7">
         <v>3977333714</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="6">
         <v>4020332650</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="7">
         <v>4388161847</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="9">
+        <v>1503960366</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <f>OR(E10="NO",F10="BAD")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
         <v>4445114986</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="12">
+        <v>1644430081</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="b">
+        <f t="shared" ref="G11:G33" si="0">OR(E11="NO",F11="BAD")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="7">
         <v>4558609924</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>6775888955</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
-        <v>7007744171</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>8053475328</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="7">
-        <v>1503960366</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="9">
+        <v>1844505072</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="13" t="b">
-        <f>OR(E20="NO",F20="BAD")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="10">
-        <v>1644430081</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="13" t="b">
-        <f t="shared" ref="G21:G43" si="0">OR(E21="NO",F21="BAD")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="7">
-        <v>1844505072</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="13" t="b">
+      <c r="G12" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="10">
+    <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <v>6775888955</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12">
         <v>1927972279</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="13" t="b">
+      <c r="G13" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="7">
+    <row r="14" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="7">
+        <v>7007744171</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9">
         <v>2026352035</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="13" t="b">
+      <c r="G14" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="10">
+    <row r="15" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="6">
+        <v>8053475328</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="12">
         <v>2320127002</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="13" t="b">
+      <c r="G15" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="7">
+    <row r="16" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9">
         <v>2347167796</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="13" t="b">
+      <c r="G16" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="10">
+    <row r="17" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="12">
         <v>3977333714</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="13" t="b">
+      <c r="G17" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="7">
+    <row r="18" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9">
         <v>4020332650</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="13" t="b">
+      <c r="G18" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="10">
+    <row r="19" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="12">
         <v>4319703577</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="13" t="b">
+      <c r="G19" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="7">
+    <row r="20" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9">
         <v>4388161847</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="13" t="b">
+      <c r="G20" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D31" s="10">
+    <row r="21" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="12">
         <v>4445114986</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="13" t="b">
+      <c r="G21" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="7">
+    <row r="22" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9">
         <v>4558609924</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="13" t="b">
+      <c r="G22" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="10">
+    <row r="23" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12">
         <v>4702921684</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="13" t="b">
+      <c r="G23" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D34" s="7">
+    <row r="24" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9">
         <v>5553957443</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="13" t="b">
+      <c r="G24" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D35" s="10">
+    <row r="25" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="12">
         <v>5577150313</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="13" t="b">
+      <c r="G25" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="7">
+    <row r="26" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9">
         <v>6117666160</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="13" t="b">
+      <c r="G26" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D37" s="10">
+    <row r="27" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="12">
         <v>6775888955</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="13" t="b">
+      <c r="G27" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D38" s="7">
+    <row r="28" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="9">
         <v>6962181067</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="13" t="b">
+      <c r="G28" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D39" s="10">
+    <row r="29" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="12">
         <v>7007744171</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="13" t="b">
+      <c r="G29" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D40" s="7">
+    <row r="30" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9">
         <v>7086361926</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="13" t="b">
+      <c r="G30" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D41" s="10">
+    <row r="31" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="12">
         <v>8053475328</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="13" t="b">
+      <c r="G31" s="8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D42" s="7">
+    <row r="32" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9">
         <v>8378563200</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="13" t="b">
+      <c r="G32" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D43" s="10">
+    <row r="33" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="12">
         <v>8792009665</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="13" t="b">
+      <c r="G33" s="8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D3:G11"/>
-    <mergeCell ref="D2:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
